--- a/Legende1.xlsx
+++ b/Legende1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maelb\Desktop\APP COLLO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356CF886-9D65-4A04-979C-1B637347E065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780E268F-AF9B-4F18-A1D0-97FFBA9E7758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29010" yWindow="4035" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 2" sheetId="2" r:id="rId1"/>
@@ -1575,6 +1575,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1591,9 +1594,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1900,10 +1900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A2:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1914,32 +1914,15 @@
     <col min="5" max="5" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>145</v>
+      <c r="C2" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>140</v>
@@ -1950,50 +1933,50 @@
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>144</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>144</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="3" t="s">
         <v>144</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
@@ -2001,33 +1984,33 @@
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>144</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="3" t="s">
         <v>144</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
@@ -2035,50 +2018,50 @@
     </row>
     <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>146</v>
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>144</v>
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="3" t="s">
         <v>144</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>19</v>
@@ -2086,152 +2069,152 @@
     </row>
     <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>144</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>144</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>146</v>
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>146</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>145</v>
+      <c r="C15" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>144</v>
+        <v>30</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C18" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="3" t="s">
         <v>144</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>40</v>
@@ -2239,33 +2222,33 @@
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>144</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>142</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>145</v>
+      <c r="C21" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>44</v>
@@ -2273,33 +2256,33 @@
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>144</v>
+        <v>43</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="3" t="s">
         <v>144</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>48</v>
@@ -2307,13 +2290,13 @@
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>146</v>
+      <c r="C24" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>143</v>
@@ -2324,16 +2307,16 @@
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>144</v>
+      <c r="C25" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>48</v>
@@ -2341,13 +2324,13 @@
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>146</v>
+      <c r="C26" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>142</v>
@@ -2358,13 +2341,13 @@
     </row>
     <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>147</v>
+      <c r="C27" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>142</v>
@@ -2375,33 +2358,33 @@
     </row>
     <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>146</v>
+        <v>47</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="3" t="s">
         <v>146</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>56</v>
@@ -2409,16 +2392,16 @@
     </row>
     <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="3" t="s">
         <v>146</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>56</v>
@@ -2426,13 +2409,13 @@
     </row>
     <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>147</v>
+      <c r="C31" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>140</v>
@@ -2443,50 +2426,50 @@
     </row>
     <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>146</v>
+        <v>55</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>140</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>146</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="3" t="s">
         <v>146</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>65</v>
@@ -2494,16 +2477,16 @@
     </row>
     <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="3" t="s">
         <v>146</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>65</v>
@@ -2511,33 +2494,33 @@
     </row>
     <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>144</v>
+        <v>64</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="3" t="s">
         <v>144</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>56</v>
@@ -2545,33 +2528,33 @@
     </row>
     <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>147</v>
+        <v>69</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>142</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="3" t="s">
         <v>147</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>28</v>
@@ -2579,135 +2562,135 @@
     </row>
     <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>146</v>
+        <v>72</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>147</v>
+      <c r="C41" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>146</v>
+      <c r="C42" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>142</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>147</v>
+      <c r="C43" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>146</v>
+      <c r="C44" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>140</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>147</v>
+        <v>75</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>144</v>
+        <v>83</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="3" t="s">
         <v>144</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>87</v>
@@ -2715,30 +2698,30 @@
     </row>
     <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>146</v>
+        <v>86</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>147</v>
+      <c r="C49" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>140</v>
@@ -2749,33 +2732,33 @@
     </row>
     <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>144</v>
+        <v>90</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="3" t="s">
         <v>144</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>31</v>
@@ -2783,16 +2766,16 @@
     </row>
     <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="3" t="s">
         <v>144</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>31</v>
@@ -2800,52 +2783,69 @@
     </row>
     <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>144</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C54" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>144</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C56" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2871,12 +2871,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2906,12 +2906,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">

--- a/Legende1.xlsx
+++ b/Legende1.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maelb\Desktop\APP COLLO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maelb\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780E268F-AF9B-4F18-A1D0-97FFBA9E7758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EBB336-3F1C-4196-8115-C0AE2CEBF2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29010" yWindow="4035" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6660" yWindow="1125" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 2" sheetId="2" r:id="rId1"/>
-    <sheet name="Table 7" sheetId="7" r:id="rId2"/>
-    <sheet name="Table 8" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="110">
   <si>
     <r>
       <rPr>
@@ -330,16 +328,6 @@
         <rFont val="Calibri"/>
         <family val="1"/>
       </rPr>
-      <t>M.Er-rhaimini</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
       <t>A201</t>
     </r>
   </si>
@@ -360,16 +348,6 @@
         <rFont val="Calibri"/>
         <family val="1"/>
       </rPr>
-      <t>M16</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
       <t>M.Tartarin</t>
     </r>
   </si>
@@ -380,16 +358,6 @@
         <rFont val="Calibri"/>
         <family val="1"/>
       </rPr>
-      <t>M17</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
       <t>M.Paranthoen</t>
     </r>
   </si>
@@ -400,16 +368,6 @@
         <rFont val="Calibri"/>
         <family val="1"/>
       </rPr>
-      <t>A003</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
       <t>SI1</t>
     </r>
   </si>
@@ -996,17 +954,6 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>FRANCAIS-PHILOSOPHIE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="1"/>
@@ -1092,337 +1039,6 @@
         <family val="1"/>
       </rPr>
       <t>A005</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>Groupes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>G1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>BARON Alexandre / BENZERROUK Sabri / HENRY Kaïs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>G9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>COLLERET Kylian / GOSSELIN Zachary  / PERRIER Mathys</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>G2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>JUNGES Antoine / MARECHT Clément / SAMSON Jules</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>G10</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>BULARD Alex / DUPONT Maxime / OLARD Robin</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>G3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>DESNOËS BAHA Antoine / LAURENT Antoine / SILVA Gustave</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>G11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>DURAND Anatole / LESCALIER Bryan / SAUVAT Johane</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>G4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>AUGUSTE Tom / LE PRÉVOST Eliot / MARECAUX Malvin</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>G12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>CORDIER Eliott / HINDERSCHIERTT Raphaël / VALAUNEY Magalie</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>G5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>BENTALHA Réda / DESTANG William / NORMAND Erwan</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>G13</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>BASSIR Sofiane / KARATEPE Kadir / LIMAM Ahmed</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>G6</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>BIGNON Marcus / DUPOIRIER Eliot / RENOUT Tom</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>G14</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>CUSSON Anthonin / LEMOINE Billy / RIMBAUD Gaël</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>G7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>CHARRON-BEUGNON Enzo / DUCLOS Thomas / TAUPIN Léandre</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>G15</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>BOUREY Emilien / LETELLIER Jules</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>G8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>CHATEL Marius / DELIVET Noé / SERANT Kenzo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>G16</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>MOLOGLOU Clément / PINA DOS SANTOS Angélo</t>
     </r>
   </si>
   <si>
@@ -1454,7 +1070,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1466,31 +1082,14 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="1"/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1501,7 +1100,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1539,7 +1138,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -1549,15 +1150,43 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1575,25 +1204,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1900,10 +1529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:E56"/>
+  <dimension ref="A2:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1922,10 +1551,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
@@ -1939,10 +1568,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>140</v>
+        <v>107</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>2</v>
@@ -1956,10 +1585,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>141</v>
+        <v>106</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>6</v>
@@ -1973,10 +1602,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>142</v>
+        <v>106</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
@@ -1990,10 +1619,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>9</v>
@@ -2007,10 +1636,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>143</v>
+        <v>106</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
@@ -2024,10 +1653,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>142</v>
+        <v>106</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>13</v>
@@ -2041,10 +1670,10 @@
         <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>140</v>
+        <v>108</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>6</v>
@@ -2058,10 +1687,10 @@
         <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>141</v>
+        <v>106</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>19</v>
@@ -2075,10 +1704,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>143</v>
+        <v>106</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>19</v>
@@ -2092,10 +1721,10 @@
         <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>142</v>
+        <v>106</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>23</v>
@@ -2109,10 +1738,10 @@
         <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>143</v>
+        <v>106</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>2</v>
@@ -2126,10 +1755,10 @@
         <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>140</v>
+        <v>108</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>28</v>
@@ -2140,67 +1769,67 @@
         <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>140</v>
+        <v>108</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>141</v>
+        <v>106</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -2211,10 +1840,10 @@
         <v>39</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>143</v>
+        <v>106</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>40</v>
@@ -2228,10 +1857,10 @@
         <v>39</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>142</v>
+        <v>107</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>40</v>
@@ -2245,10 +1874,10 @@
         <v>43</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>142</v>
+        <v>106</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>44</v>
@@ -2262,10 +1891,10 @@
         <v>43</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>140</v>
+        <v>108</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>44</v>
@@ -2276,84 +1905,84 @@
         <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>141</v>
+        <v>106</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>143</v>
+        <v>108</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>143</v>
+        <v>106</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>142</v>
+        <v>109</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -2361,16 +1990,16 @@
         <v>53</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>142</v>
+        <v>108</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -2378,50 +2007,50 @@
         <v>54</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>143</v>
+        <v>108</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>142</v>
+        <v>109</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -2429,33 +2058,33 @@
         <v>59</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>140</v>
+        <v>108</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -2463,101 +2092,101 @@
         <v>63</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>143</v>
+        <v>108</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>142</v>
+        <v>106</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="C37" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>143</v>
+        <v>109</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>142</v>
+        <v>109</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -2565,84 +2194,84 @@
         <v>73</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>140</v>
+        <v>109</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>143</v>
+        <v>108</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>142</v>
+        <v>109</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>142</v>
+        <v>108</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -2650,33 +2279,33 @@
         <v>81</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -2687,10 +2316,10 @@
         <v>86</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>141</v>
+        <v>108</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>87</v>
@@ -2704,10 +2333,10 @@
         <v>86</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>143</v>
+        <v>109</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>87</v>
@@ -2721,64 +2350,64 @@
         <v>90</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>141</v>
+        <v>106</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>31</v>
+      <c r="C52" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -2786,249 +2415,37 @@
         <v>96</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>31</v>
+        <v>97</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E54" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="C54" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E54" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>106</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="84" customWidth="1"/>
-    <col min="3" max="3" width="7.5" customWidth="1"/>
-    <col min="4" max="4" width="84" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Legende1.xlsx
+++ b/Legende1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maelb\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EBB336-3F1C-4196-8115-C0AE2CEBF2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4CE7F9-14BE-4C80-8F85-485D7F6CB73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="1125" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22440" yWindow="1005" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 2" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="112">
   <si>
     <r>
       <rPr>
@@ -1064,6 +1064,12 @@
   </si>
   <si>
     <t xml:space="preserve">jeudi </t>
+  </si>
+  <si>
+    <t>A106</t>
+  </si>
+  <si>
+    <t>A003</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1224,6 +1230,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1531,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1777,8 +1786,8 @@
       <c r="D15" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>30</v>
+      <c r="E15" s="10" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1794,8 +1803,8 @@
       <c r="D16" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>28</v>
+      <c r="E16" s="10" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
